--- a/IDP-Career-Perspectives-FR_00-021.xlsx
+++ b/IDP-Career-Perspectives-FR_00-021.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programmation\Projets C#\Mon Projet\VersionBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24570" windowHeight="9405" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24576" windowHeight="9408" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Entete" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="125">
   <si>
     <t>Auteur(s)</t>
   </si>
@@ -430,6 +430,12 @@
   </si>
   <si>
     <t>Environnement Git</t>
+  </si>
+  <si>
+    <t>Responsable de CDS</t>
+  </si>
+  <si>
+    <t>Chef de projet technique</t>
   </si>
 </sst>
 </file>
@@ -985,6 +991,27 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1009,18 +1036,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1046,15 +1061,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1095,7 +1101,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1143,7 +1149,7 @@
         <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1392,83 +1398,83 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.25" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="7.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="13"/>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="14"/>
     </row>
-    <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="64"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="16"/>
     </row>
-    <row r="5" spans="1:5" ht="160.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-    </row>
-    <row r="6" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="58" t="s">
+    <row r="5" spans="1:5" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+    </row>
+    <row r="6" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
-    </row>
-    <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="60" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66"/>
+    </row>
+    <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="59">
         <v>43105</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1478,7 +1484,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
@@ -1492,7 +1498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
@@ -1506,11 +1512,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="77">
+      <c r="C14" s="55">
         <v>30589</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -1520,7 +1526,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B15" s="17" t="s">
         <v>45</v>
       </c>
@@ -1528,7 +1534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="10" t="s">
         <v>39</v>
       </c>
@@ -1540,49 +1546,49 @@
       </c>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="62" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1613,93 +1619,93 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
-    <col min="2" max="3" width="31.75" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.25" style="1"/>
+    <col min="1" max="1" width="22.69921875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="31.69921875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="31.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="68"/>
-    </row>
-    <row r="3" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="71"/>
+    </row>
+    <row r="3" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="68"/>
-    </row>
-    <row r="5" spans="1:3" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="71"/>
+    </row>
+    <row r="5" spans="1:3" ht="31.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="69"/>
-    </row>
-    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
-      <c r="B7" s="69" t="s">
+      <c r="C6" s="72"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="70"/>
+      <c r="B7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="69"/>
-    </row>
-    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="70" t="s">
+      <c r="C7" s="72"/>
+    </row>
+    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="70"/>
+      <c r="B8" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="70"/>
-    </row>
-    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67" t="s">
+      <c r="C8" s="73"/>
+    </row>
+    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="69"/>
-    </row>
-    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="67"/>
-      <c r="B10" s="69" t="s">
+      <c r="C9" s="72"/>
+    </row>
+    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="70"/>
+      <c r="B10" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="69"/>
-    </row>
-    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67"/>
-      <c r="B11" s="69" t="s">
+      <c r="C10" s="72"/>
+    </row>
+    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="70"/>
+      <c r="B11" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="69"/>
-    </row>
-    <row r="13" spans="1:3" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="72"/>
+    </row>
+    <row r="13" spans="1:3" ht="31.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
@@ -1721,7 +1727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>73</v>
       </c>
@@ -1732,7 +1738,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>76</v>
       </c>
@@ -1743,7 +1749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1785,46 +1791,46 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="60.625" customWidth="1"/>
-    <col min="2" max="3" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="60.59765625" customWidth="1"/>
+    <col min="2" max="3" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="48" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="78">
+      <c r="C4" s="56">
         <v>42404</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>49</v>
       </c>
@@ -1835,7 +1841,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>50</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>51</v>
       </c>
@@ -1854,38 +1860,38 @@
         <v>24</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="24" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="25" t="s">
         <v>104</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
     </row>
-    <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A13" s="48" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
     </row>
-    <row r="14" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>80</v>
       </c>
@@ -1896,7 +1902,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
         <v>104</v>
       </c>
@@ -1907,28 +1913,28 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A18" s="48" t="s">
         <v>82</v>
       </c>
       <c r="B18" s="49"/>
       <c r="C18" s="49"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
     </row>
-    <row r="20" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>83</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
         <v>104</v>
       </c>
@@ -1950,35 +1956,35 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="25" t="s">
         <v>105</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
     </row>
-    <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A27" s="53" t="s">
         <v>86</v>
       </c>
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
     </row>
-    <row r="28" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>52</v>
       </c>
@@ -1989,7 +1995,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
         <v>104</v>
       </c>
@@ -2000,21 +2006,21 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="48" t="s">
         <v>87</v>
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="19" t="s">
         <v>106</v>
       </c>
@@ -2042,24 +2048,24 @@
   </sheetPr>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="31.125" customWidth="1"/>
-    <col min="2" max="2" width="46.25" customWidth="1"/>
-    <col min="3" max="3" width="59.875" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="31.09765625" customWidth="1"/>
+    <col min="2" max="2" width="46.19921875" customWidth="1"/>
+    <col min="3" max="3" width="59.8984375" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="24.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A2" s="48" t="s">
         <v>93</v>
       </c>
@@ -2067,7 +2073,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="54"/>
     </row>
-    <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
         <v>64</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="29" t="s">
         <v>65</v>
       </c>
@@ -2089,8 +2095,8 @@
       <c r="C4" s="30"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="74" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -2099,21 +2105,23 @@
       <c r="C5" s="33"/>
       <c r="D5" s="34"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="74"/>
       <c r="B6" s="36" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="35"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="36"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="74"/>
+      <c r="B7" s="36" t="s">
+        <v>122</v>
+      </c>
       <c r="C7" s="33"/>
       <c r="D7" s="32"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="38" t="s">
         <v>67</v>
       </c>
@@ -2121,8 +2129,8 @@
       <c r="C8" s="36"/>
       <c r="D8" s="39"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="72" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="75" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="36" t="s">
@@ -2131,23 +2139,23 @@
       <c r="C9" s="33"/>
       <c r="D9" s="34"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="72"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="75"/>
       <c r="B10" s="33" t="s">
         <v>111</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="34"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="75"/>
       <c r="B11" s="33" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="40"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="41" t="s">
         <v>69</v>
       </c>
@@ -2155,65 +2163,69 @@
       <c r="C12" s="36"/>
       <c r="D12" s="42"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="73" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="76" t="s">
         <v>70</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="33" t="s">
         <v>122</v>
       </c>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="73"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="76"/>
       <c r="B14" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="33" t="s">
+        <v>107</v>
+      </c>
       <c r="D14" s="34"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="73"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="76"/>
       <c r="B15" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="33" t="s">
+        <v>124</v>
+      </c>
       <c r="D15" s="33"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="73"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="76"/>
       <c r="B16" s="33" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="73"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="76"/>
       <c r="B17" s="36" t="s">
         <v>109</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="73"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="76"/>
       <c r="B18" s="33" t="s">
         <v>121</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="73"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="76"/>
       <c r="B19" s="33"/>
       <c r="C19" s="35"/>
       <c r="D19" s="34"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="43" t="s">
         <v>71</v>
       </c>
@@ -2221,8 +2233,8 @@
       <c r="C20" s="36"/>
       <c r="D20" s="42"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="74" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="77" t="s">
         <v>72</v>
       </c>
       <c r="B21" s="33" t="s">
@@ -2231,55 +2243,55 @@
       <c r="C21" s="35"/>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="74"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="77"/>
       <c r="B22" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="45"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="77"/>
       <c r="B23" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="46"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="74"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="77"/>
       <c r="B24" s="34" t="s">
         <v>120</v>
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="46"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="74"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="77"/>
       <c r="B25" s="33" t="s">
         <v>112</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="46"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="75"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="78"/>
       <c r="B26" s="33"/>
       <c r="C26" s="34"/>
       <c r="D26" s="47"/>
     </row>
-    <row r="27" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -2311,31 +2323,31 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="60.625" customWidth="1"/>
-    <col min="2" max="3" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="60.59765625" customWidth="1"/>
+    <col min="2" max="3" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A2" s="48" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
     </row>
-    <row r="3" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>95</v>
       </c>
@@ -2346,7 +2358,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
@@ -2357,7 +2369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
@@ -2368,7 +2380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
@@ -2379,7 +2391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -2390,7 +2402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
@@ -2401,7 +2413,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -2412,7 +2424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>28</v>
       </c>
@@ -2423,7 +2435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
@@ -2434,7 +2446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
@@ -2445,40 +2457,40 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A13" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
     </row>
-    <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="48" t="s">
         <v>94</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="20" t="s">
         <v>28</v>
       </c>
@@ -2500,6 +2512,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C74908D0E41BC42B08475F207DECDB0" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="7ff4eb30befe92038f61cc88f83a9bdf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f03e471c-ab1a-40bf-97c2-e6235ed84487" xmlns:ns3="d4b41af6-0436-4b30-b696-76389f800ad6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eab88dbce57d31e27afcffa02087225c" ns2:_="" ns3:_="">
     <xsd:import namespace="f03e471c-ab1a-40bf-97c2-e6235ed84487"/>
@@ -2664,36 +2691,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FF40A46-D16A-4424-8DEB-0C3CF4DDD075}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A04E226-1BF2-4161-ABEA-CBC9A4C31228}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f03e471c-ab1a-40bf-97c2-e6235ed84487"/>
-    <ds:schemaRef ds:uri="d4b41af6-0436-4b30-b696-76389f800ad6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2716,9 +2717,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A04E226-1BF2-4161-ABEA-CBC9A4C31228}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FF40A46-D16A-4424-8DEB-0C3CF4DDD075}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f03e471c-ab1a-40bf-97c2-e6235ed84487"/>
+    <ds:schemaRef ds:uri="d4b41af6-0436-4b30-b696-76389f800ad6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>